--- a/experiment_parameters_ref.xlsx
+++ b/experiment_parameters_ref.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masg\LPBF-SmartAM-Optical-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12900" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cube1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="211" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +604,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="222" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +639,7 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -667,7 +667,7 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -681,7 +681,7 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -723,7 +723,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -737,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -751,7 +751,7 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -765,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -952,7 +952,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="217" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,7 +1001,7 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,7 +1029,7 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,7 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,7 +1071,7 @@
         <v>24</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,7 +1085,7 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1099,7 +1099,7 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,7 +1113,7 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="216" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,7 +1335,7 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1363,7 +1363,7 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1377,7 +1377,7 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1391,7 +1391,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1419,7 +1419,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1433,7 +1433,7 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1447,7 +1447,7 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1461,7 +1461,7 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1651,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="232" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1686,7 +1686,7 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1700,7 +1700,7 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1714,7 +1714,7 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1728,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1742,7 +1742,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1756,7 +1756,7 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,7 +1770,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1784,7 +1784,7 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1798,7 +1798,7 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1812,7 +1812,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
